--- a/docs/DG/S1.0.01-MTDconverter_Template/2000_Standard/MTD_converter/DG_MTD_Ubiquitous_S1.0.01_v1.0.xlsx
+++ b/docs/DG/S1.0.01-MTDconverter_Template/2000_Standard/MTD_converter/DG_MTD_Ubiquitous_S1.0.01_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\saastoolset\datapca\docs\DG\S1.0.01-MTDconverter_Template\2000_Standard\MTD_converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317BE196-5604-4B0C-817B-6839B766F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846A0608-3DD0-4EA8-93B1-4080BDEF7FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="603">
   <si>
     <t>範本內容</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2780,9 +2780,6 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Parent Term Name</t>
-  </si>
-  <si>
     <t>Related Terms</t>
   </si>
   <si>
@@ -2935,6 +2932,24 @@
   </si>
   <si>
     <t>jessewei@tw.ibm.com</t>
+  </si>
+  <si>
+    <t>資料規格書</t>
+  </si>
+  <si>
+    <t>Data Specification</t>
+  </si>
+  <si>
+    <t>業務資料規格定義</t>
+  </si>
+  <si>
+    <t>中介檔</t>
+  </si>
+  <si>
+    <t>Data Inventory</t>
+  </si>
+  <si>
+    <t>Specify synonyms</t>
   </si>
 </sst>
 </file>
@@ -4246,6 +4261,45 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4271,45 +4325,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4333,17 +4348,7 @@
     <cellStyle name="常规 3 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="超連結 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4667,27 +4672,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表格1_32" displayName="表格1_32" ref="A1:E29" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="常规 10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表格1_32" displayName="表格1_32" ref="A1:E29" totalsRowShown="0" headerRowDxfId="12" headerRowCellStyle="常规 10">
   <autoFilter ref="A1:E29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="範本內容" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="填寫內容" dataDxfId="11" dataCellStyle="常规 13 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="填寫要求" dataDxfId="10" dataCellStyle="常规 13 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="範本內容" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="填寫內容" dataDxfId="10" dataCellStyle="常规 13 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="填寫要求" dataDxfId="9" dataCellStyle="常规 13 2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="取值範圍"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="範例" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="範例" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表格22" displayName="表格22" ref="H1:K5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="常规 3 3" dataCellStyle="常规 3 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表格22" displayName="表格22" ref="H1:K5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="常规 3 3" dataCellStyle="常规 3 3">
   <autoFilter ref="H1:K5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="錯誤代碼" dataDxfId="6" dataCellStyle="常规 3 3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="問題描述" dataDxfId="5" dataCellStyle="常规 3 3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="建議處理方式" dataDxfId="4" dataCellStyle="常规 3 3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Level" dataDxfId="3" dataCellStyle="常规 3 3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="錯誤代碼" dataDxfId="5" dataCellStyle="常规 3 3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="問題描述" dataDxfId="4" dataCellStyle="常规 3 3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="建議處理方式" dataDxfId="3" dataCellStyle="常规 3 3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Level" dataDxfId="2" dataCellStyle="常规 3 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8103,11 +8108,11 @@
   <sheetPr codeName="工作表2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AR61"/>
+  <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8279,22 +8284,22 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="124" customFormat="1" ht="54">
+    <row r="2" spans="1:44" s="124" customFormat="1">
       <c r="B2" s="124" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D2" s="157" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="E2" s="157" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="F2" s="134"/>
       <c r="G2" s="134" t="s">
-        <v>10</v>
+        <v>599</v>
       </c>
       <c r="H2" s="134" t="s">
         <v>184</v>
@@ -8312,10 +8317,10 @@
       <c r="M2" s="134"/>
       <c r="N2" s="134"/>
       <c r="O2" s="133" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q2" s="124" t="s">
         <v>596</v>
-      </c>
-      <c r="Q2" s="124" t="s">
-        <v>597</v>
       </c>
       <c r="R2" s="124" t="str">
         <f>Q2</f>
@@ -8325,7 +8330,7 @@
       <c r="T2" s="134"/>
       <c r="U2" s="134" t="str" cm="1">
         <f t="array" ref="U2">IF(J2="", AO2,INDEX(AO:AO,AP2))</f>
-        <v>INT_DOI_TERMID</v>
+        <v>INT_DOI_DATA_SPECIFICATION</v>
       </c>
       <c r="V2" s="134" t="str">
         <f>IF(J2="","", AO2 )</f>
@@ -8336,11 +8341,11 @@
       <c r="Y2" s="135"/>
       <c r="AM2" s="124" t="str">
         <f>SUBSTITUTE(AO2, "DOI_DOI_", "DOI_")</f>
-        <v>INT_DOI_TERMID</v>
+        <v>INT_DOI_DATA_SPECIFICATION</v>
       </c>
       <c r="AO2" s="158" t="str">
         <f>SUBSTITUTE(IF(J2="", IF(LEN(C2)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F2="", E2, E2)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
-        <v>INT_DOI_TERMID</v>
+        <v>INT_DOI_DATA_SPECIFICATION</v>
       </c>
       <c r="AP2" s="124">
         <f>IF(OR(J2="",J2="N/A"), 0, MATCH(J2,D:D,0))</f>
@@ -8348,2940 +8353,2559 @@
       </c>
       <c r="AQ2" s="124" t="str">
         <f>D2&amp;I2</f>
-        <v>標準編號Concept</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" s="161" customFormat="1">
-      <c r="B3" s="161" t="str">
+        <v>資料規格書Concept</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="174" customFormat="1" ht="54">
+      <c r="B3" s="174" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" s="174" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="175" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" s="175" t="s">
+        <v>551</v>
+      </c>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="176" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="177" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q3" s="174" t="s">
+        <v>596</v>
+      </c>
+      <c r="R3" s="174" t="str">
+        <f>Q3</f>
+        <v>jessewei@tw.ibm.com</v>
+      </c>
+      <c r="S3" s="177"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176" t="str" cm="1">
+        <f t="array" ref="U3">IF(J3="", AO3,INDEX(AO:AO,AP3))</f>
+        <v>INT_DOI_TERMID</v>
+      </c>
+      <c r="V3" s="176" t="str">
+        <f>IF(J3="","", AO3 )</f>
+        <v/>
+      </c>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="178"/>
+      <c r="AM3" s="174" t="str">
+        <f>SUBSTITUTE(AO3, "DOI_DOI_", "DOI_")</f>
+        <v>INT_DOI_TERMID</v>
+      </c>
+      <c r="AO3" s="179" t="str">
+        <f>SUBSTITUTE(IF(J3="", IF(LEN(C3)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F3="", E3, E3)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
+        <v>INT_DOI_TERMID</v>
+      </c>
+      <c r="AP3" s="174">
+        <f>IF(OR(J3="",J3="N/A"), 0, MATCH(J3,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="174" t="str">
+        <f>D3&amp;I3</f>
+        <v>標準編號Property</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="B4" s="120" t="str">
         <f>B2</f>
         <v>MTD</v>
       </c>
-      <c r="C3" s="161" t="str">
+      <c r="C4" s="120" t="str">
         <f>C2</f>
         <v>MTD</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D4" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E4" s="159" t="s">
         <v>442</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="162" t="s">
-        <v>575</v>
-      </c>
-      <c r="H3" s="163" t="s">
+      <c r="G4" s="159" t="s">
+        <v>574</v>
+      </c>
+      <c r="H4" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="163" t="s">
+      <c r="I4" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163" t="s">
+      <c r="K4" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="163" t="str">
+      <c r="L4" s="122" t="str">
         <f>L2</f>
         <v>General</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M4" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="163"/>
-      <c r="O3" s="164" t="str">
+      <c r="O4" s="123" t="str">
         <f>O2</f>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q3" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R3" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S3" s="164"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163" t="str" cm="1">
-        <f t="array" ref="U3">IF(J3="", AO3,INDEX(AO:AO,AP3))</f>
+      <c r="Q4" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R4" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U4" s="122" t="str" cm="1">
+        <f t="array" ref="U4">IF(J4="", AO4,INDEX(AO:AO,AP4))</f>
         <v>INT_DOI_DOMAIN</v>
       </c>
-      <c r="V3" s="163" t="str">
-        <f>IF(J3="","", AO3 )</f>
-        <v/>
-      </c>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="165"/>
-      <c r="AO3" s="166" t="str">
-        <f t="shared" ref="AO3:AO35" si="0">SUBSTITUTE(IF(J3="", IF(LEN(C3)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F3="", E3, E3)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
+      <c r="V4" s="122" t="str">
+        <f>IF(J4="","", AO4 )</f>
+        <v/>
+      </c>
+      <c r="Y4" s="160"/>
+      <c r="AO4" s="158" t="str">
+        <f t="shared" ref="AO4:AO5" si="0">SUBSTITUTE(IF(J4="", IF(LEN(C4)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F4="", E4, E4)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
         <v>INT_DOI_DOMAIN</v>
       </c>
-      <c r="AP3" s="161">
-        <f>IF(OR(J3="",J3="N/A"), 0, MATCH(J3,D:D,0))</f>
+      <c r="AP4" s="120">
+        <f>IF(OR(J4="",J4="N/A"), 0, MATCH(J4,D:D,0))</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="161" t="str">
-        <f>D3&amp;I3</f>
+      <c r="AQ4" s="120" t="str">
+        <f>D4&amp;I4</f>
         <v>負責領域Property</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="161" customFormat="1">
-      <c r="B4" s="161" t="str">
-        <f t="shared" ref="B4:B35" si="1">B3</f>
+    <row r="5" spans="1:44">
+      <c r="B5" s="120" t="str">
+        <f t="shared" ref="B5:B36" si="1">B4</f>
         <v>MTD</v>
       </c>
-      <c r="C4" s="161" t="str">
-        <f t="shared" ref="C4:C35" si="2">C3</f>
+      <c r="C5" s="120" t="str">
+        <f t="shared" ref="C5:C36" si="2">C4</f>
         <v>MTD</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D5" s="159" t="s">
         <v>521</v>
       </c>
-      <c r="E4" s="162" t="s">
-        <v>553</v>
-      </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="162" t="s">
-        <v>576</v>
-      </c>
-      <c r="H4" s="163" t="s">
+      <c r="E5" s="159" t="s">
+        <v>552</v>
+      </c>
+      <c r="G5" s="159" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="163" t="s">
+      <c r="I5" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163" t="s">
+      <c r="K5" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="163" t="str">
-        <f t="shared" ref="L4:L35" si="3">L3</f>
+      <c r="L5" s="122" t="str">
+        <f t="shared" ref="L5:L36" si="3">L4</f>
         <v>General</v>
       </c>
-      <c r="M4" s="163" t="s">
+      <c r="M5" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="163"/>
-      <c r="O4" s="164" t="str">
-        <f t="shared" ref="O4:O35" si="4">O3</f>
+      <c r="O5" s="123" t="str">
+        <f t="shared" ref="O5:O36" si="4">O4</f>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q4" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R4" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S4" s="164"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163" t="str" cm="1">
-        <f t="array" ref="U4">IF(J4="", AO4,INDEX(AO:AO,AP4))</f>
+      <c r="Q5" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R5" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U5" s="122" t="str" cm="1">
+        <f t="array" ref="U5">IF(J5="", AO5,INDEX(AO:AO,AP5))</f>
         <v>INT_DOI_CATEGORY</v>
       </c>
-      <c r="V4" s="163" t="str">
-        <f t="shared" ref="V4:V12" si="5">IF(J4="","", AO4 )</f>
-        <v/>
-      </c>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="165"/>
-      <c r="AO4" s="166" t="str">
+      <c r="V5" s="122" t="str">
+        <f t="shared" ref="V5" si="5">IF(J5="","", AO5 )</f>
+        <v/>
+      </c>
+      <c r="Y5" s="160"/>
+      <c r="AO5" s="158" t="str">
         <f t="shared" si="0"/>
         <v>INT_DOI_CATEGORY</v>
       </c>
-      <c r="AP4" s="161">
-        <f>IF(OR(J4="",J4="N/A"), 0, MATCH(J4,D:D,0))</f>
+      <c r="AP5" s="120">
+        <f>IF(OR(J5="",J5="N/A"), 0, MATCH(J5,D:D,0))</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="161" t="str">
-        <f t="shared" ref="AQ4:AQ12" si="6">D4&amp;I4</f>
+      <c r="AQ5" s="120" t="str">
+        <f t="shared" ref="AQ5" si="6">D5&amp;I5</f>
         <v>層級Property</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="161" customFormat="1" ht="67.5">
-      <c r="A5" s="167"/>
-      <c r="B5" s="161" t="str">
+    <row r="6" spans="1:44" ht="54">
+      <c r="A6" s="86"/>
+      <c r="B6" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C5" s="161" t="str">
+      <c r="C6" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D5" s="168" t="s">
+      <c r="D6" s="161" t="s">
         <v>522</v>
       </c>
-      <c r="E5" s="168" t="s">
+      <c r="E6" s="161" t="s">
         <v>544</v>
       </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168" t="s">
-        <v>577</v>
-      </c>
-      <c r="H5" s="167"/>
-      <c r="I5" s="163" t="s">
+      <c r="F6" s="161"/>
+      <c r="G6" s="161" t="s">
+        <v>576</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="168"/>
-      <c r="K5" s="163" t="s">
+      <c r="J6" s="161"/>
+      <c r="K6" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="163" t="str">
+      <c r="L6" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M5" s="163" t="s">
+      <c r="M6" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N5" s="163"/>
-      <c r="O5" s="164" t="str">
+      <c r="O6" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q5" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R5" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S5" s="164"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163" t="str" cm="1">
-        <f t="array" ref="U5">IF(J5="", AO5,INDEX(AO:AO,AP5))</f>
+      <c r="Q6" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R6" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U6" s="122" t="str" cm="1">
+        <f t="array" ref="U6">IF(J6="", AO6,INDEX(AO:AO,AP6))</f>
         <v>INT_DOI_NICK_NAME</v>
       </c>
-      <c r="V5" s="163" t="str">
-        <f t="shared" ref="V5:V35" si="7">IF(J5="","", AO5 )</f>
-        <v/>
-      </c>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="165"/>
-      <c r="AO5" s="166" t="str">
-        <f t="shared" ref="AO5:AO35" si="8">SUBSTITUTE(IF(J5="", IF(LEN(C5)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F5="", E5, E5)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
+      <c r="V6" s="122" t="str">
+        <f t="shared" ref="V6:V36" si="7">IF(J6="","", AO6 )</f>
+        <v/>
+      </c>
+      <c r="Y6" s="160"/>
+      <c r="AO6" s="158" t="str">
+        <f t="shared" ref="AO6:AO36" si="8">SUBSTITUTE(IF(J6="", IF(LEN(C6)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F6="", E6, E6)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
         <v>INT_DOI_NICK_NAME</v>
       </c>
-      <c r="AP5" s="161">
-        <f t="shared" ref="AP5:AP35" si="9">IF(OR(J5="",J5="N/A"), 0, MATCH(J5,D:D,0))</f>
+      <c r="AP6" s="120">
+        <f>IF(OR(J6="",J6="N/A"), 0, MATCH(J6,D:D,0))</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="161" t="str">
-        <f t="shared" ref="AQ5:AQ35" si="10">D5&amp;I5</f>
+      <c r="AQ6" s="120" t="str">
+        <f t="shared" ref="AQ6:AQ36" si="9">D6&amp;I6</f>
         <v>中文名稱Property</v>
       </c>
-      <c r="AR5" s="169"/>
-    </row>
-    <row r="6" spans="1:44" s="161" customFormat="1" ht="54">
-      <c r="B6" s="161" t="str">
+      <c r="AR6" s="162"/>
+    </row>
+    <row r="7" spans="1:44" ht="40.5">
+      <c r="B7" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C6" s="161" t="str">
+      <c r="C7" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D6" s="178" t="s">
+      <c r="D7" s="170" t="s">
         <v>523</v>
       </c>
-      <c r="E6" s="178" t="s">
-        <v>554</v>
-      </c>
-      <c r="F6" s="178"/>
-      <c r="G6" s="179" t="s">
-        <v>578</v>
-      </c>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163" t="s">
+      <c r="E7" s="170" t="s">
+        <v>553</v>
+      </c>
+      <c r="F7" s="170"/>
+      <c r="G7" s="171" t="s">
+        <v>577</v>
+      </c>
+      <c r="I7" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163" t="s">
+      <c r="K7" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L6" s="163" t="str">
+      <c r="L7" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M6" s="163" t="s">
+      <c r="M7" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N6" s="163"/>
-      <c r="O6" s="164" t="str">
+      <c r="O7" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q6" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R6" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S6" s="164"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163" t="str" cm="1">
-        <f t="array" ref="U6">IF(J6="", AO6,INDEX(AO:AO,AP6))</f>
+      <c r="Q7" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R7" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U7" s="122" t="str" cm="1">
+        <f t="array" ref="U7">IF(J7="", AO7,INDEX(AO:AO,AP7))</f>
         <v>INT_DOI_ENGLISHNAME</v>
       </c>
-      <c r="V6" s="163" t="str">
+      <c r="V7" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="165"/>
-      <c r="AO6" s="166" t="str">
+      <c r="Y7" s="160"/>
+      <c r="AO7" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_ENGLISHNAME</v>
       </c>
-      <c r="AP6" s="161">
+      <c r="AP7" s="120">
+        <f>IF(OR(J7="",J7="N/A"), 0, MATCH(J7,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>英文名稱Property</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="161" customFormat="1" ht="54">
-      <c r="B7" s="161" t="str">
+    <row r="8" spans="1:44" ht="54">
+      <c r="B8" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C7" s="161" t="str">
+      <c r="C8" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D7" s="179" t="s">
+      <c r="D8" s="171" t="s">
         <v>524</v>
       </c>
-      <c r="E7" s="179" t="s">
+      <c r="E8" s="171" t="s">
         <v>545</v>
       </c>
-      <c r="F7" s="179"/>
-      <c r="G7" s="178" t="s">
-        <v>579</v>
-      </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="163" t="s">
+      <c r="F8" s="171"/>
+      <c r="G8" s="170" t="s">
+        <v>578</v>
+      </c>
+      <c r="H8" s="163"/>
+      <c r="I8" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163" t="s">
+      <c r="K8" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L7" s="163" t="str">
+      <c r="L8" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M7" s="163" t="s">
+      <c r="M8" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="164" t="str">
+      <c r="O8" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q7" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R7" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S7" s="164"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163" t="str" cm="1">
-        <f t="array" ref="U7">IF(J7="", AO7,INDEX(AO:AO,AP7))</f>
+      <c r="Q8" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R8" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U8" s="122" t="str" cm="1">
+        <f t="array" ref="U8">IF(J8="", AO8,INDEX(AO:AO,AP8))</f>
         <v>INT_DOI_ACRONYM</v>
       </c>
-      <c r="V7" s="163" t="str">
+      <c r="V8" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="165"/>
-      <c r="AO7" s="166" t="str">
+      <c r="Y8" s="160"/>
+      <c r="AO8" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_ACRONYM</v>
       </c>
-      <c r="AP7" s="161">
+      <c r="AP8" s="120">
+        <f>IF(OR(J8="",J8="N/A"), 0, MATCH(J8,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>別名Property</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="161" customFormat="1" ht="40.5">
-      <c r="B8" s="161" t="str">
+    <row r="9" spans="1:44" ht="40.5">
+      <c r="B9" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C8" s="161" t="str">
+      <c r="C9" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D8" s="179" t="s">
+      <c r="D9" s="171" t="s">
         <v>525</v>
       </c>
-      <c r="E8" s="179" t="s">
+      <c r="E9" s="171" t="s">
         <v>546</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179" t="s">
-        <v>580</v>
-      </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="163" t="s">
+      <c r="F9" s="171"/>
+      <c r="G9" s="171" t="s">
+        <v>579</v>
+      </c>
+      <c r="H9" s="163"/>
+      <c r="I9" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163" t="s">
+      <c r="K9" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="163" t="str">
+      <c r="L9" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M8" s="163" t="s">
+      <c r="M9" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N8" s="163"/>
-      <c r="O8" s="164" t="str">
+      <c r="O9" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q8" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R8" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S8" s="164"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163" t="str" cm="1">
-        <f t="array" ref="U8">IF(J8="", AO8,INDEX(AO:AO,AP8))</f>
+      <c r="Q9" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R9" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U9" s="122" t="str" cm="1">
+        <f t="array" ref="U9">IF(J9="", AO9,INDEX(AO:AO,AP9))</f>
         <v>INT_DOI_DEFINITION</v>
       </c>
-      <c r="V8" s="163" t="str">
+      <c r="V9" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="165"/>
-      <c r="AO8" s="166" t="str">
+      <c r="Y9" s="160"/>
+      <c r="AO9" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_DEFINITION</v>
       </c>
-      <c r="AP8" s="161">
+      <c r="AP9" s="120">
+        <f>IF(OR(J9="",J9="N/A"), 0, MATCH(J9,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>業務定義Property</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="161" customFormat="1" ht="27">
-      <c r="B9" s="161" t="str">
+    <row r="10" spans="1:44" ht="27">
+      <c r="B10" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C9" s="161" t="str">
+      <c r="C10" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D9" s="179" t="s">
+      <c r="D10" s="171" t="s">
         <v>526</v>
       </c>
-      <c r="E9" s="179" t="s">
-        <v>555</v>
-      </c>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179" t="s">
-        <v>581</v>
-      </c>
-      <c r="H9" s="170"/>
-      <c r="I9" s="163" t="s">
+      <c r="E10" s="171" t="s">
+        <v>554</v>
+      </c>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171" t="s">
+        <v>580</v>
+      </c>
+      <c r="H10" s="163"/>
+      <c r="I10" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163" t="s">
+      <c r="K10" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="163" t="str">
+      <c r="L10" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M9" s="163" t="s">
+      <c r="M10" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N9" s="163"/>
-      <c r="O9" s="164" t="str">
+      <c r="O10" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q9" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R9" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S9" s="164"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163" t="str" cm="1">
-        <f t="array" ref="U9">IF(J9="", AO9,INDEX(AO:AO,AP9))</f>
+      <c r="Q10" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R10" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U10" s="122" t="str" cm="1">
+        <f t="array" ref="U10">IF(J10="", AO10,INDEX(AO:AO,AP10))</f>
         <v>INT_DOI_BUSINESSRULE</v>
       </c>
-      <c r="V9" s="163" t="str">
+      <c r="V10" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W9" s="163"/>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="165"/>
-      <c r="AO9" s="166" t="str">
+      <c r="Y10" s="160"/>
+      <c r="AO10" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_BUSINESSRULE</v>
       </c>
-      <c r="AP9" s="161">
+      <c r="AP10" s="120">
+        <f>IF(OR(J10="",J10="N/A"), 0, MATCH(J10,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>業務規則Property</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="161" customFormat="1">
-      <c r="B10" s="161" t="str">
+    <row r="11" spans="1:44">
+      <c r="B11" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C10" s="161" t="str">
+      <c r="C11" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D11" s="171" t="s">
         <v>527</v>
       </c>
-      <c r="E10" s="179" t="s">
-        <v>556</v>
-      </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179" t="s">
-        <v>582</v>
-      </c>
-      <c r="H10" s="170"/>
-      <c r="I10" s="163" t="s">
+      <c r="E11" s="171" t="s">
+        <v>555</v>
+      </c>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171" t="s">
+        <v>581</v>
+      </c>
+      <c r="H11" s="163"/>
+      <c r="I11" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163" t="s">
+      <c r="K11" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L10" s="163" t="str">
+      <c r="L11" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M10" s="163" t="s">
+      <c r="M11" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N10" s="163"/>
-      <c r="O10" s="164" t="str">
+      <c r="O11" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q10" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R10" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S10" s="164"/>
-      <c r="T10" s="163"/>
-      <c r="U10" s="163" t="str" cm="1">
-        <f t="array" ref="U10">IF(J10="", AO10,INDEX(AO:AO,AP10))</f>
+      <c r="Q11" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R11" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U11" s="122" t="str" cm="1">
+        <f t="array" ref="U11">IF(J11="", AO11,INDEX(AO:AO,AP11))</f>
         <v>INT_DOI_TERMTYPE</v>
       </c>
-      <c r="V10" s="163" t="str">
+      <c r="V11" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="165"/>
-      <c r="AO10" s="166" t="str">
+      <c r="Y11" s="160"/>
+      <c r="AO11" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_TERMTYPE</v>
       </c>
-      <c r="AP10" s="161">
+      <c r="AP11" s="120">
+        <f>IF(OR(J11="",J11="N/A"), 0, MATCH(J11,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>項目類型Property</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="173" customFormat="1">
-      <c r="A11" s="172"/>
-      <c r="B11" s="161" t="str">
+    <row r="12" spans="1:44" s="166" customFormat="1">
+      <c r="A12" s="165"/>
+      <c r="B12" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C11" s="161" t="str">
+      <c r="C12" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D12" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="174" t="s">
-        <v>547</v>
-      </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174" t="s">
-        <v>583</v>
-      </c>
-      <c r="H11" s="170"/>
-      <c r="I11" s="163" t="s">
+      <c r="E12" s="167" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167" t="s">
+        <v>582</v>
+      </c>
+      <c r="H12" s="163"/>
+      <c r="I12" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J11" s="175"/>
-      <c r="K11" s="163" t="s">
+      <c r="J12" s="168"/>
+      <c r="K12" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L11" s="163" t="str">
+      <c r="L12" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M11" s="163" t="s">
+      <c r="M12" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N11" s="163"/>
-      <c r="O11" s="164" t="str">
+      <c r="N12" s="122"/>
+      <c r="O12" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R11" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S11" s="164"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="163" t="str" cm="1">
-        <f t="array" ref="U11">IF(J11="", AO11,INDEX(AO:AO,AP11))</f>
-        <v>INT_DOI_PARENT_TERM_NAME</v>
-      </c>
-      <c r="V11" s="163" t="str">
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R12" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="S12" s="123"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122" t="str" cm="1">
+        <f t="array" ref="U12">IF(J12="", AO12,INDEX(AO:AO,AP12))</f>
+        <v>INT_DOI_SPECIFY_SYNONYMS</v>
+      </c>
+      <c r="V12" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
-      <c r="AB11" s="161"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="161"/>
-      <c r="AE11" s="161"/>
-      <c r="AF11" s="161"/>
-      <c r="AG11" s="161"/>
-      <c r="AH11" s="161"/>
-      <c r="AI11" s="161"/>
-      <c r="AJ11" s="161"/>
-      <c r="AK11" s="161"/>
-      <c r="AL11" s="161"/>
-      <c r="AM11" s="161"/>
-      <c r="AN11" s="161"/>
-      <c r="AO11" s="166" t="str">
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="120"/>
+      <c r="AO12" s="158" t="str">
         <f t="shared" si="8"/>
-        <v>INT_DOI_PARENT_TERM_NAME</v>
-      </c>
-      <c r="AP11" s="161">
+        <v>INT_DOI_SPECIFY_SYNONYMS</v>
+      </c>
+      <c r="AP12" s="120">
+        <f>IF(OR(J12="",J12="N/A"), 0, MATCH(J12,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>指定同義詞Property</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="161" customFormat="1" ht="27">
-      <c r="B12" s="161" t="str">
+    <row r="13" spans="1:44" ht="27">
+      <c r="B13" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C12" s="161" t="str">
+      <c r="C13" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D13" s="159" t="s">
         <v>528</v>
       </c>
-      <c r="E12" s="162" t="s">
-        <v>548</v>
-      </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="170" t="s">
-        <v>584</v>
-      </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="163" t="s">
+      <c r="E13" s="159" t="s">
+        <v>547</v>
+      </c>
+      <c r="F13" s="159"/>
+      <c r="G13" s="163" t="s">
+        <v>583</v>
+      </c>
+      <c r="H13" s="159"/>
+      <c r="I13" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163" t="s">
+      <c r="K13" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L12" s="163" t="str">
+      <c r="L13" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M12" s="163" t="s">
+      <c r="M13" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N12" s="163"/>
-      <c r="O12" s="164" t="str">
+      <c r="O13" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q12" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R12" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S12" s="164"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="163" t="str" cm="1">
-        <f t="array" ref="U12">IF(J12="", AO12,INDEX(AO:AO,AP12))</f>
+      <c r="Q13" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R13" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U13" s="122" t="str" cm="1">
+        <f t="array" ref="U13">IF(J13="", AO13,INDEX(AO:AO,AP13))</f>
         <v>INT_DOI_RELATED_TERMS</v>
       </c>
-      <c r="V12" s="163" t="str">
+      <c r="V13" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="165"/>
-      <c r="AO12" s="166" t="str">
+      <c r="Y13" s="160"/>
+      <c r="AO13" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_RELATED_TERMS</v>
       </c>
-      <c r="AP12" s="161">
+      <c r="AP13" s="120">
+        <f>IF(OR(J13="",J13="N/A"), 0, MATCH(J13,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>關連項目Property</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="161" customFormat="1">
-      <c r="B13" s="161" t="str">
+    <row r="14" spans="1:44">
+      <c r="B14" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C13" s="161" t="str">
+      <c r="C14" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D14" s="159" t="s">
         <v>529</v>
       </c>
-      <c r="E13" s="162" t="s">
+      <c r="E14" s="159" t="s">
         <v>458</v>
       </c>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163" t="s">
+      <c r="G14" s="122" t="s">
         <v>529</v>
       </c>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163" t="s">
+      <c r="I14" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163" t="s">
+      <c r="K14" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L13" s="163" t="str">
+      <c r="L14" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M13" s="163" t="s">
+      <c r="M14" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N13" s="163"/>
-      <c r="O13" s="164" t="str">
+      <c r="O14" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q13" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R13" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S13" s="164"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="163" t="str" cm="1">
-        <f t="array" ref="U13">IF(J13="", AO13,INDEX(AO:AO,AP13))</f>
+      <c r="Q14" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R14" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U14" s="122" t="str" cm="1">
+        <f t="array" ref="U14">IF(J14="", AO14,INDEX(AO:AO,AP14))</f>
         <v>INT_DOI_SENSITIVITY</v>
       </c>
-      <c r="V13" s="163" t="str">
+      <c r="V14" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W13" s="163"/>
-      <c r="X13" s="163"/>
-      <c r="Y13" s="165"/>
-      <c r="AO13" s="166" t="str">
+      <c r="Y14" s="160"/>
+      <c r="AO14" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_SENSITIVITY</v>
       </c>
-      <c r="AP13" s="161">
+      <c r="AP14" s="120">
+        <f>IF(OR(J14="",J14="N/A"), 0, MATCH(J14,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>資料安全分級Property</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="161" customFormat="1" ht="54">
-      <c r="B14" s="161" t="str">
+    <row r="15" spans="1:44" ht="54">
+      <c r="B15" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C14" s="161" t="str">
+      <c r="C15" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D15" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="162" t="s">
-        <v>557</v>
-      </c>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162" t="s">
-        <v>585</v>
-      </c>
-      <c r="H14" s="170"/>
-      <c r="I14" s="163" t="s">
+      <c r="E15" s="159" t="s">
+        <v>556</v>
+      </c>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159" t="s">
+        <v>584</v>
+      </c>
+      <c r="H15" s="163"/>
+      <c r="I15" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163" t="s">
+      <c r="K15" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L14" s="163" t="str">
+      <c r="L15" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M14" s="163" t="s">
+      <c r="M15" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N14" s="163"/>
-      <c r="O14" s="164" t="str">
+      <c r="O15" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q14" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R14" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S14" s="164"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163" t="str" cm="1">
-        <f t="array" ref="U14">IF(J14="", AO14,INDEX(AO:AO,AP14))</f>
+      <c r="Q15" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R15" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U15" s="122" t="str" cm="1">
+        <f t="array" ref="U15">IF(J15="", AO15,INDEX(AO:AO,AP15))</f>
         <v>INT_DOI_DATATYPE</v>
       </c>
-      <c r="V14" s="163" t="str">
+      <c r="V15" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="165"/>
-      <c r="AO14" s="166" t="str">
+      <c r="Y15" s="160"/>
+      <c r="AO15" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_DATATYPE</v>
       </c>
-      <c r="AP14" s="161">
+      <c r="AP15" s="120">
+        <f>IF(OR(J15="",J15="N/A"), 0, MATCH(J15,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>資料型別Property</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="161" customFormat="1" ht="27">
-      <c r="B15" s="161" t="str">
+    <row r="16" spans="1:44" ht="27">
+      <c r="B16" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C15" s="161" t="str">
+      <c r="C16" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D16" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="162" t="s">
-        <v>558</v>
-      </c>
-      <c r="F15" s="163"/>
-      <c r="G15" s="162" t="s">
-        <v>586</v>
-      </c>
-      <c r="H15" s="170"/>
-      <c r="I15" s="163" t="s">
+      <c r="E16" s="159" t="s">
+        <v>557</v>
+      </c>
+      <c r="G16" s="159" t="s">
+        <v>585</v>
+      </c>
+      <c r="H16" s="163"/>
+      <c r="I16" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163" t="s">
+      <c r="K16" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L15" s="163" t="str">
+      <c r="L16" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M15" s="163" t="s">
+      <c r="M16" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N15" s="163"/>
-      <c r="O15" s="164" t="str">
+      <c r="O16" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q15" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R15" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S15" s="164"/>
-      <c r="T15" s="163"/>
-      <c r="U15" s="163" t="str" cm="1">
-        <f t="array" ref="U15">IF(J15="", AO15,INDEX(AO:AO,AP15))</f>
+      <c r="Q16" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R16" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U16" s="122" t="str" cm="1">
+        <f t="array" ref="U16">IF(J16="", AO16,INDEX(AO:AO,AP16))</f>
         <v>INT_DOI_REFERENCEDATA</v>
       </c>
-      <c r="V15" s="163" t="str">
+      <c r="V16" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="165"/>
-      <c r="AO15" s="166" t="str">
+      <c r="Y16" s="160"/>
+      <c r="AO16" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_REFERENCEDATA</v>
       </c>
-      <c r="AP15" s="161">
+      <c r="AP16" s="120">
+        <f>IF(OR(J16="",J16="N/A"), 0, MATCH(J16,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>代碼編碼規則Property</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="161" customFormat="1">
-      <c r="B16" s="161" t="str">
+    <row r="17" spans="1:44">
+      <c r="B17" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C16" s="161" t="str">
+      <c r="C17" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D17" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="161" t="s">
-        <v>569</v>
-      </c>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162" t="s">
+      <c r="E17" s="120" t="s">
+        <v>568</v>
+      </c>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="162" t="s">
-        <v>549</v>
-      </c>
-      <c r="I16" s="163" t="s">
+      <c r="H17" s="159" t="s">
+        <v>548</v>
+      </c>
+      <c r="I17" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163" t="s">
+      <c r="K17" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L16" s="163" t="str">
+      <c r="L17" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M16" s="163" t="s">
+      <c r="M17" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N16" s="163"/>
-      <c r="O16" s="164" t="str">
+      <c r="O17" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q16" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R16" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S16" s="164"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163" t="str" cm="1">
-        <f t="array" ref="U16">IF(J16="", AO16,INDEX(AO:AO,AP16))</f>
+      <c r="Q17" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R17" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U17" s="122" t="str" cm="1">
+        <f t="array" ref="U17">IF(J17="", AO17,INDEX(AO:AO,AP17))</f>
         <v>INT_DOI_DATACOMMENT</v>
       </c>
-      <c r="V16" s="163" t="str">
+      <c r="V17" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="165"/>
-      <c r="AO16" s="166" t="str">
+      <c r="Y17" s="160"/>
+      <c r="AO17" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_DATACOMMENT</v>
       </c>
-      <c r="AP16" s="161">
+      <c r="AP17" s="120">
+        <f>IF(OR(J17="",J17="N/A"), 0, MATCH(J17,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>資料備註Property</v>
       </c>
     </row>
-    <row r="17" spans="1:44" s="161" customFormat="1">
-      <c r="B17" s="161" t="str">
+    <row r="18" spans="1:44">
+      <c r="B18" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C17" s="161" t="str">
+      <c r="C18" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D18" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="161" t="s">
-        <v>568</v>
-      </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163" t="s">
-        <v>587</v>
-      </c>
-      <c r="H17" s="162" t="s">
-        <v>549</v>
-      </c>
-      <c r="I17" s="163" t="s">
+      <c r="E18" s="120" t="s">
+        <v>567</v>
+      </c>
+      <c r="G18" s="122" t="s">
+        <v>586</v>
+      </c>
+      <c r="H18" s="159" t="s">
+        <v>548</v>
+      </c>
+      <c r="I18" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163" t="s">
+      <c r="K18" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="163" t="str">
+      <c r="L18" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M17" s="163" t="s">
+      <c r="M18" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N17" s="163"/>
-      <c r="O17" s="164" t="str">
+      <c r="O18" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q17" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R17" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S17" s="164"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163" t="str" cm="1">
-        <f t="array" ref="U17">IF(J17="", AO17,INDEX(AO:AO,AP17))</f>
+      <c r="Q18" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R18" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U18" s="122" t="str" cm="1">
+        <f t="array" ref="U18">IF(J18="", AO18,INDEX(AO:AO,AP18))</f>
         <v>INT_DOI_DATAOWNER</v>
       </c>
-      <c r="V17" s="163" t="str">
+      <c r="V18" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="165"/>
-      <c r="AO17" s="166" t="str">
+      <c r="Y18" s="160"/>
+      <c r="AO18" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_DATAOWNER</v>
       </c>
-      <c r="AP17" s="161">
+      <c r="AP18" s="120">
+        <f>IF(OR(J18="",J18="N/A"), 0, MATCH(J18,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>標準定義部門Property</v>
       </c>
     </row>
-    <row r="18" spans="1:44" s="161" customFormat="1">
-      <c r="B18" s="161" t="str">
+    <row r="19" spans="1:44">
+      <c r="B19" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C18" s="161" t="str">
+      <c r="C19" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D18" s="162" t="s">
+      <c r="D19" s="159" t="s">
         <v>530</v>
       </c>
-      <c r="E18" s="162" t="s">
+      <c r="E19" s="159" t="s">
         <v>446</v>
       </c>
-      <c r="F18" s="163"/>
-      <c r="G18" s="162" t="s">
-        <v>588</v>
-      </c>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163" t="s">
+      <c r="G19" s="159" t="s">
+        <v>587</v>
+      </c>
+      <c r="I19" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163" t="s">
+      <c r="K19" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L18" s="163" t="str">
+      <c r="L19" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M18" s="163" t="s">
+      <c r="M19" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N18" s="163"/>
-      <c r="O18" s="164" t="str">
+      <c r="O19" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q18" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R18" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S18" s="164"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163" t="str" cm="1">
-        <f t="array" ref="U18">IF(J18="", AO18,INDEX(AO:AO,AP18))</f>
+      <c r="Q19" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R19" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U19" s="122" t="str" cm="1">
+        <f t="array" ref="U19">IF(J19="", AO19,INDEX(AO:AO,AP19))</f>
         <v>INT_DOI_STEWARDS</v>
       </c>
-      <c r="V18" s="163" t="str">
+      <c r="V19" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="165"/>
-      <c r="AO18" s="166" t="str">
+      <c r="Y19" s="160"/>
+      <c r="AO19" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_STEWARDS</v>
       </c>
-      <c r="AP18" s="161">
+      <c r="AP19" s="120">
+        <f>IF(OR(J19="",J19="N/A"), 0, MATCH(J19,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>資料管家Property</v>
       </c>
     </row>
-    <row r="19" spans="1:44" s="161" customFormat="1">
-      <c r="B19" s="161" t="str">
+    <row r="20" spans="1:44">
+      <c r="B20" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C19" s="161" t="str">
+      <c r="C20" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D20" s="159" t="s">
         <v>531</v>
       </c>
-      <c r="E19" s="162" t="s">
-        <v>550</v>
-      </c>
-      <c r="F19" s="163"/>
-      <c r="G19" s="162" t="s">
-        <v>588</v>
-      </c>
-      <c r="H19" s="162"/>
-      <c r="I19" s="163" t="s">
+      <c r="E20" s="159" t="s">
+        <v>549</v>
+      </c>
+      <c r="G20" s="159" t="s">
+        <v>587</v>
+      </c>
+      <c r="H20" s="159"/>
+      <c r="I20" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J19" s="162"/>
-      <c r="K19" s="163" t="s">
+      <c r="J20" s="159"/>
+      <c r="K20" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L19" s="163" t="str">
+      <c r="L20" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M19" s="163" t="s">
+      <c r="M20" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N19" s="163"/>
-      <c r="O19" s="164" t="str">
+      <c r="O20" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q19" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R19" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S19" s="164"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163" t="str" cm="1">
-        <f t="array" ref="U19">IF(J19="", AO19,INDEX(AO:AO,AP19))</f>
+      <c r="Q20" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R20" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U20" s="122" t="str" cm="1">
+        <f t="array" ref="U20">IF(J20="", AO20,INDEX(AO:AO,AP20))</f>
         <v>INT_DOI_EXPERTS</v>
       </c>
-      <c r="V19" s="163" t="str">
+      <c r="V20" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
-      <c r="Y19" s="165"/>
-      <c r="AO19" s="166" t="str">
+      <c r="Y20" s="160"/>
+      <c r="AO20" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_EXPERTS</v>
       </c>
-      <c r="AP19" s="161">
+      <c r="AP20" s="120">
+        <f>IF(OR(J20="",J20="N/A"), 0, MATCH(J20,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>技術窗口Property</v>
       </c>
     </row>
-    <row r="20" spans="1:44" s="161" customFormat="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="161" t="str">
+    <row r="21" spans="1:44">
+      <c r="A21" s="86"/>
+      <c r="B21" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C20" s="161" t="str">
+      <c r="C21" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D20" s="168" t="s">
+      <c r="D21" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="161" t="s">
-        <v>570</v>
-      </c>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168" t="s">
-        <v>589</v>
-      </c>
-      <c r="H20" s="168" t="s">
-        <v>549</v>
-      </c>
-      <c r="I20" s="163" t="s">
+      <c r="E21" s="120" t="s">
+        <v>569</v>
+      </c>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161" t="s">
+        <v>588</v>
+      </c>
+      <c r="H21" s="161" t="s">
+        <v>548</v>
+      </c>
+      <c r="I21" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J20" s="168"/>
-      <c r="K20" s="163" t="s">
+      <c r="J21" s="161"/>
+      <c r="K21" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L20" s="163" t="str">
+      <c r="L21" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M20" s="163" t="s">
+      <c r="M21" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N20" s="163"/>
-      <c r="O20" s="164" t="str">
+      <c r="O21" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q20" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R20" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S20" s="164"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163" t="str" cm="1">
-        <f t="array" ref="U20">IF(J20="", AO20,INDEX(AO:AO,AP20))</f>
+      <c r="Q21" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R21" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U21" s="122" t="str" cm="1">
+        <f t="array" ref="U21">IF(J21="", AO21,INDEX(AO:AO,AP21))</f>
         <v>INT_DOI_TECHNICALCOMMENT</v>
       </c>
-      <c r="V20" s="163" t="str">
+      <c r="V21" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
-      <c r="Y20" s="165"/>
-      <c r="AO20" s="166" t="str">
+      <c r="Y21" s="160"/>
+      <c r="AO21" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_TECHNICALCOMMENT</v>
       </c>
-      <c r="AP20" s="161">
+      <c r="AP21" s="120">
+        <f>IF(OR(J21="",J21="N/A"), 0, MATCH(J21,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>技術備註Property</v>
       </c>
-      <c r="AR20" s="169"/>
-    </row>
-    <row r="21" spans="1:44" s="161" customFormat="1" ht="27">
-      <c r="B21" s="161" t="str">
+      <c r="AR21" s="162"/>
+    </row>
+    <row r="22" spans="1:44" ht="27">
+      <c r="B22" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C21" s="161" t="str">
+      <c r="C22" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D21" s="176" t="s">
+      <c r="D22" s="169" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="163" t="s">
-        <v>559</v>
-      </c>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163" t="s">
-        <v>590</v>
-      </c>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163" t="s">
+      <c r="E22" s="122" t="s">
+        <v>558</v>
+      </c>
+      <c r="G22" s="122" t="s">
+        <v>589</v>
+      </c>
+      <c r="I22" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J21" s="168"/>
-      <c r="K21" s="163" t="s">
+      <c r="J22" s="161"/>
+      <c r="K22" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L21" s="163" t="str">
+      <c r="L22" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M21" s="163" t="s">
+      <c r="M22" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N21" s="163"/>
-      <c r="O21" s="164" t="str">
+      <c r="O22" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q21" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R21" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S21" s="164"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="163" t="str" cm="1">
-        <f t="array" ref="U21">IF(J21="", AO21,INDEX(AO:AO,AP21))</f>
+      <c r="Q22" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R22" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U22" s="122" t="str" cm="1">
+        <f t="array" ref="U22">IF(J22="", AO22,INDEX(AO:AO,AP22))</f>
         <v>INT_DOI_SOURCESYSTEM</v>
       </c>
-      <c r="V21" s="163" t="str">
+      <c r="V22" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W21" s="163"/>
-      <c r="X21" s="163"/>
-      <c r="Y21" s="165"/>
-      <c r="AO21" s="166" t="str">
+      <c r="Y22" s="160"/>
+      <c r="AO22" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_SOURCESYSTEM</v>
       </c>
-      <c r="AP21" s="161">
+      <c r="AP22" s="120">
+        <f>IF(OR(J22="",J22="N/A"), 0, MATCH(J22,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>權威系統Property</v>
       </c>
     </row>
-    <row r="22" spans="1:44" s="161" customFormat="1" ht="27">
-      <c r="B22" s="161" t="str">
+    <row r="23" spans="1:44" ht="27">
+      <c r="B23" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C22" s="161" t="str">
+      <c r="C23" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="D23" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="162" t="s">
-        <v>560</v>
-      </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="179" t="s">
-        <v>591</v>
-      </c>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163" t="s">
+      <c r="E23" s="159" t="s">
+        <v>559</v>
+      </c>
+      <c r="F23" s="159"/>
+      <c r="G23" s="171" t="s">
+        <v>590</v>
+      </c>
+      <c r="I23" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163" t="s">
+      <c r="K23" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L22" s="163" t="str">
+      <c r="L23" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M22" s="163" t="s">
+      <c r="M23" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N22" s="163"/>
-      <c r="O22" s="164" t="str">
+      <c r="O23" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q22" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R22" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S22" s="164"/>
-      <c r="T22" s="163"/>
-      <c r="U22" s="163" t="str" cm="1">
-        <f t="array" ref="U22">IF(J22="", AO22,INDEX(AO:AO,AP22))</f>
+      <c r="Q23" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R23" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U23" s="122" t="str" cm="1">
+        <f t="array" ref="U23">IF(J23="", AO23,INDEX(AO:AO,AP23))</f>
         <v>INT_DOI_SOURCETABLE</v>
       </c>
-      <c r="V22" s="163" t="str">
+      <c r="V23" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W22" s="163"/>
-      <c r="X22" s="163"/>
-      <c r="Y22" s="165"/>
-      <c r="AO22" s="166" t="str">
+      <c r="Y23" s="160"/>
+      <c r="AO23" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_SOURCETABLE</v>
       </c>
-      <c r="AP22" s="161">
+      <c r="AP23" s="120">
+        <f>IF(OR(J23="",J23="N/A"), 0, MATCH(J23,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>資料來源Property</v>
       </c>
     </row>
-    <row r="23" spans="1:44" s="161" customFormat="1" ht="27">
-      <c r="B23" s="161" t="str">
+    <row r="24" spans="1:44" ht="27">
+      <c r="B24" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C23" s="161" t="str">
+      <c r="C24" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D23" s="178" t="s">
+      <c r="D24" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="178" t="s">
-        <v>561</v>
-      </c>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178" t="s">
-        <v>592</v>
-      </c>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163" t="s">
+      <c r="E24" s="170" t="s">
+        <v>560</v>
+      </c>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170" t="s">
+        <v>591</v>
+      </c>
+      <c r="I24" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163" t="s">
+      <c r="K24" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L23" s="163" t="str">
+      <c r="L24" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M23" s="163" t="s">
+      <c r="M24" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N23" s="163"/>
-      <c r="O23" s="164" t="str">
+      <c r="O24" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q23" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R23" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S23" s="164"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163" t="str" cm="1">
-        <f t="array" ref="U23">IF(J23="", AO23,INDEX(AO:AO,AP23))</f>
+      <c r="Q24" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R24" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U24" s="122" t="str" cm="1">
+        <f t="array" ref="U24">IF(J24="", AO24,INDEX(AO:AO,AP24))</f>
         <v>INT_DOI_SOURCECOLUMN</v>
       </c>
-      <c r="V23" s="163" t="str">
+      <c r="V24" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W23" s="163"/>
-      <c r="X23" s="163"/>
-      <c r="Y23" s="165"/>
-      <c r="AO23" s="166" t="str">
+      <c r="Y24" s="160"/>
+      <c r="AO24" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_SOURCECOLUMN</v>
       </c>
-      <c r="AP23" s="161">
+      <c r="AP24" s="120">
+        <f>IF(OR(J24="",J24="N/A"), 0, MATCH(J24,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>來源對應規則Property</v>
       </c>
     </row>
-    <row r="24" spans="1:44" s="161" customFormat="1">
-      <c r="B24" s="161" t="str">
+    <row r="25" spans="1:44">
+      <c r="B25" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C24" s="161" t="str">
+      <c r="C25" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D24" s="178" t="s">
+      <c r="D25" s="170" t="s">
         <v>533</v>
       </c>
-      <c r="E24" s="178" t="s">
-        <v>562</v>
-      </c>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178" t="s">
-        <v>593</v>
-      </c>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163" t="s">
+      <c r="E25" s="170" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170" t="s">
+        <v>592</v>
+      </c>
+      <c r="I25" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163" t="s">
+      <c r="K25" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L24" s="163" t="str">
+      <c r="L25" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M24" s="163" t="s">
+      <c r="M25" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N24" s="163"/>
-      <c r="O24" s="164" t="str">
+      <c r="O25" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q24" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R24" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S24" s="164"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163" t="str" cm="1">
-        <f t="array" ref="U24">IF(J24="", AO24,INDEX(AO:AO,AP24))</f>
+      <c r="Q25" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R25" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U25" s="122" t="str" cm="1">
+        <f t="array" ref="U25">IF(J25="", AO25,INDEX(AO:AO,AP25))</f>
         <v>INT_DOI_SOURCECRITERIA</v>
       </c>
-      <c r="V24" s="163" t="str">
+      <c r="V25" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="165"/>
-      <c r="AO24" s="166" t="str">
+      <c r="Y25" s="160"/>
+      <c r="AO25" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_SOURCECRITERIA</v>
       </c>
-      <c r="AP24" s="161">
+      <c r="AP25" s="120">
+        <f>IF(OR(J25="",J25="N/A"), 0, MATCH(J25,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>特殊取值規則Property</v>
       </c>
     </row>
-    <row r="25" spans="1:44" s="161" customFormat="1">
-      <c r="B25" s="161" t="str">
+    <row r="26" spans="1:44">
+      <c r="B26" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C25" s="161" t="str">
+      <c r="C26" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D26" s="159" t="s">
         <v>534</v>
       </c>
-      <c r="E25" s="178" t="s">
-        <v>551</v>
-      </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="161" t="str">
-        <f t="shared" ref="G25:G26" si="11">D25</f>
+      <c r="E26" s="170" t="s">
+        <v>550</v>
+      </c>
+      <c r="F26" s="170"/>
+      <c r="G26" s="120" t="str">
+        <f t="shared" ref="G26:G27" si="10">D26</f>
         <v>參考資源</v>
       </c>
-      <c r="H25" s="171"/>
-      <c r="I25" s="163" t="s">
+      <c r="H26" s="164"/>
+      <c r="I26" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J25" s="168"/>
-      <c r="K25" s="163" t="s">
+      <c r="J26" s="161"/>
+      <c r="K26" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L25" s="163" t="str">
+      <c r="L26" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M25" s="163" t="s">
+      <c r="M26" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N25" s="163"/>
-      <c r="O25" s="164" t="str">
+      <c r="O26" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q25" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R25" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S25" s="164"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163" t="str" cm="1">
-        <f t="array" ref="U25">IF(J25="", AO25,INDEX(AO:AO,AP25))</f>
+      <c r="Q26" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R26" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U26" s="122" t="str" cm="1">
+        <f t="array" ref="U26">IF(J26="", AO26,INDEX(AO:AO,AP26))</f>
         <v>INT_DOI_RESOURCES</v>
       </c>
-      <c r="V25" s="163" t="str">
+      <c r="V26" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="165"/>
-      <c r="AO25" s="166" t="str">
+      <c r="Y26" s="160"/>
+      <c r="AO26" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_RESOURCES</v>
       </c>
-      <c r="AP25" s="161">
+      <c r="AP26" s="120">
+        <f>IF(OR(J26="",J26="N/A"), 0, MATCH(J26,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>參考資源Property</v>
       </c>
     </row>
-    <row r="26" spans="1:44" s="161" customFormat="1">
-      <c r="B26" s="161" t="str">
+    <row r="27" spans="1:44">
+      <c r="B27" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C26" s="161" t="str">
+      <c r="C27" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D26" s="162" t="s">
+      <c r="D27" s="159" t="s">
         <v>535</v>
       </c>
-      <c r="E26" s="161" t="s">
-        <v>574</v>
-      </c>
-      <c r="F26" s="163"/>
-      <c r="G26" s="161" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" s="120" t="s">
+        <v>573</v>
+      </c>
+      <c r="G27" s="120" t="str">
+        <f t="shared" si="10"/>
         <v>制定依據</v>
       </c>
-      <c r="H26" s="162" t="s">
-        <v>549</v>
-      </c>
-      <c r="I26" s="163" t="s">
+      <c r="H27" s="159" t="s">
+        <v>548</v>
+      </c>
+      <c r="I27" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163" t="s">
+      <c r="K27" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L26" s="163" t="str">
+      <c r="L27" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M26" s="163" t="s">
+      <c r="M27" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N26" s="163"/>
-      <c r="O26" s="164" t="str">
+      <c r="O27" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q26" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R26" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S26" s="164"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163" t="str" cm="1">
-        <f t="array" ref="U26">IF(J26="", AO26,INDEX(AO:AO,AP26))</f>
+      <c r="Q27" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R27" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U27" s="122" t="str" cm="1">
+        <f t="array" ref="U27">IF(J27="", AO27,INDEX(AO:AO,AP27))</f>
         <v>INT_DOI_FORMULATE_BASIS</v>
       </c>
-      <c r="V26" s="163" t="str">
+      <c r="V27" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="165"/>
-      <c r="AO26" s="166" t="str">
+      <c r="Y27" s="160"/>
+      <c r="AO27" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_FORMULATE_BASIS</v>
       </c>
-      <c r="AP26" s="161">
+      <c r="AP27" s="120">
+        <f>IF(OR(J27="",J27="N/A"), 0, MATCH(J27,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>制定依據Property</v>
       </c>
     </row>
-    <row r="27" spans="1:44" s="161" customFormat="1">
-      <c r="B27" s="161" t="str">
+    <row r="28" spans="1:44">
+      <c r="B28" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C27" s="161" t="str">
+      <c r="C28" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D28" s="170" t="s">
         <v>536</v>
       </c>
-      <c r="E27" s="161" t="s">
-        <v>572</v>
-      </c>
-      <c r="F27" s="178"/>
-      <c r="G27" s="161" t="str">
-        <f>D27</f>
+      <c r="E28" s="120" t="s">
+        <v>571</v>
+      </c>
+      <c r="F28" s="170"/>
+      <c r="G28" s="120" t="str">
+        <f>D28</f>
         <v>相關標準</v>
       </c>
-      <c r="H27" s="178" t="s">
-        <v>549</v>
-      </c>
-      <c r="I27" s="163" t="s">
+      <c r="H28" s="170" t="s">
+        <v>548</v>
+      </c>
+      <c r="I28" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163" t="s">
+      <c r="K28" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L27" s="163" t="str">
+      <c r="L28" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M27" s="163" t="s">
+      <c r="M28" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N27" s="163"/>
-      <c r="O27" s="164" t="str">
+      <c r="O28" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q27" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R27" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S27" s="164"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163" t="str" cm="1">
-        <f t="array" ref="U27">IF(J27="", AO27,INDEX(AO:AO,AP27))</f>
+      <c r="Q28" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R28" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U28" s="122" t="str" cm="1">
+        <f t="array" ref="U28">IF(J28="", AO28,INDEX(AO:AO,AP28))</f>
         <v>INT_DOI_RELATIVESTANDARD</v>
       </c>
-      <c r="V27" s="163" t="str">
+      <c r="V28" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="165"/>
-      <c r="AO27" s="166" t="str">
+      <c r="Y28" s="160"/>
+      <c r="AO28" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_RELATIVESTANDARD</v>
       </c>
-      <c r="AP27" s="161">
+      <c r="AP28" s="120">
+        <f>IF(OR(J28="",J28="N/A"), 0, MATCH(J28,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>相關標準Property</v>
       </c>
     </row>
-    <row r="28" spans="1:44" s="161" customFormat="1" ht="40.5">
-      <c r="B28" s="161" t="str">
+    <row r="29" spans="1:44" ht="40.5">
+      <c r="B29" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C28" s="161" t="str">
+      <c r="C29" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D28" s="178" t="s">
+      <c r="D29" s="170" t="s">
         <v>537</v>
       </c>
-      <c r="E28" s="161" t="s">
-        <v>571</v>
-      </c>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178" t="s">
+      <c r="E29" s="120" t="s">
+        <v>570</v>
+      </c>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="178" t="s">
-        <v>549</v>
-      </c>
-      <c r="I28" s="163" t="s">
+      <c r="H29" s="170" t="s">
+        <v>548</v>
+      </c>
+      <c r="I29" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163" t="s">
+      <c r="K29" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="163" t="str">
+      <c r="L29" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M28" s="163" t="s">
+      <c r="M29" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N28" s="163"/>
-      <c r="O28" s="164" t="str">
+      <c r="O29" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q28" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R28" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S28" s="164"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="163" t="str" cm="1">
-        <f t="array" ref="U28">IF(J28="", AO28,INDEX(AO:AO,AP28))</f>
+      <c r="Q29" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R29" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U29" s="122" t="str" cm="1">
+        <f t="array" ref="U29">IF(J29="", AO29,INDEX(AO:AO,AP29))</f>
         <v>INT_DOI_RELATIONSHIPWITHRELATIVESTANDARD</v>
       </c>
-      <c r="V28" s="163" t="str">
+      <c r="V29" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="165"/>
-      <c r="AO28" s="166" t="str">
+      <c r="Y29" s="160"/>
+      <c r="AO29" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_RELATIONSHIPWITHRELATIVESTANDARD</v>
       </c>
-      <c r="AP28" s="161">
+      <c r="AP29" s="120">
+        <f>IF(OR(J29="",J29="N/A"), 0, MATCH(J29,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>與相關標準關係Property</v>
       </c>
     </row>
-    <row r="29" spans="1:44" s="161" customFormat="1">
-      <c r="B29" s="161" t="str">
+    <row r="30" spans="1:44">
+      <c r="B30" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C29" s="161" t="str">
+      <c r="C30" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D29" s="178" t="s">
+      <c r="D30" s="170" t="s">
         <v>538</v>
       </c>
-      <c r="E29" s="161" t="s">
-        <v>573</v>
-      </c>
-      <c r="F29" s="178"/>
-      <c r="G29" s="163" t="s">
-        <v>594</v>
-      </c>
-      <c r="H29" s="178" t="s">
-        <v>549</v>
-      </c>
-      <c r="I29" s="163" t="s">
+      <c r="E30" s="120" t="s">
+        <v>572</v>
+      </c>
+      <c r="F30" s="170"/>
+      <c r="G30" s="122" t="s">
+        <v>593</v>
+      </c>
+      <c r="H30" s="170" t="s">
+        <v>548</v>
+      </c>
+      <c r="I30" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163" t="s">
+      <c r="K30" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L29" s="163" t="str">
+      <c r="L30" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M29" s="163" t="s">
+      <c r="M30" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N29" s="163"/>
-      <c r="O29" s="164" t="str">
+      <c r="O30" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q29" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R29" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S29" s="164"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="163" t="str" cm="1">
-        <f t="array" ref="U29">IF(J29="", AO29,INDEX(AO:AO,AP29))</f>
+      <c r="Q30" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R30" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U30" s="122" t="str" cm="1">
+        <f t="array" ref="U30">IF(J30="", AO30,INDEX(AO:AO,AP30))</f>
         <v>INT_DOI_AUTHOR</v>
       </c>
-      <c r="V29" s="163" t="str">
+      <c r="V30" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W29" s="163"/>
-      <c r="X29" s="163"/>
-      <c r="Y29" s="165"/>
-      <c r="AO29" s="166" t="str">
+      <c r="Y30" s="160"/>
+      <c r="AO30" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_AUTHOR</v>
       </c>
-      <c r="AP29" s="161">
+      <c r="AP30" s="120">
+        <f>IF(OR(J30="",J30="N/A"), 0, MATCH(J30,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>填表部門及人員Property</v>
       </c>
     </row>
-    <row r="30" spans="1:44" s="161" customFormat="1" ht="27">
-      <c r="B30" s="161" t="str">
+    <row r="31" spans="1:44" ht="27">
+      <c r="B31" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C30" s="161" t="str">
+      <c r="C31" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D30" s="178" t="s">
+      <c r="D31" s="170" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="178" t="s">
-        <v>563</v>
-      </c>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178" t="s">
+      <c r="E31" s="170" t="s">
+        <v>562</v>
+      </c>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163" t="s">
+      <c r="I31" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163" t="s">
+      <c r="K31" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L30" s="163" t="str">
+      <c r="L31" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M30" s="163" t="s">
+      <c r="M31" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N30" s="163"/>
-      <c r="O30" s="164" t="str">
+      <c r="O31" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q30" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R30" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S30" s="164"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163" t="str" cm="1">
-        <f t="array" ref="U30">IF(J30="", AO30,INDEX(AO:AO,AP30))</f>
+      <c r="Q31" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R31" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U31" s="122" t="str" cm="1">
+        <f t="array" ref="U31">IF(J31="", AO31,INDEX(AO:AO,AP31))</f>
         <v>INT_DOI_FORMULA</v>
       </c>
-      <c r="V30" s="163" t="str">
+      <c r="V31" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W30" s="163"/>
-      <c r="X30" s="163"/>
-      <c r="Y30" s="165"/>
-      <c r="AO30" s="166" t="str">
+      <c r="Y31" s="160"/>
+      <c r="AO31" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_FORMULA</v>
       </c>
-      <c r="AP30" s="161">
+      <c r="AP31" s="120">
+        <f>IF(OR(J31="",J31="N/A"), 0, MATCH(J31,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>計算公式Property</v>
       </c>
     </row>
-    <row r="31" spans="1:44" s="161" customFormat="1">
-      <c r="B31" s="161" t="str">
+    <row r="32" spans="1:44">
+      <c r="B32" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C31" s="161" t="str">
+      <c r="C32" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D31" s="178" t="s">
+      <c r="D32" s="170" t="s">
         <v>539</v>
       </c>
-      <c r="E31" s="178" t="s">
+      <c r="E32" s="170" t="s">
         <v>443</v>
       </c>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178" t="s">
+      <c r="F32" s="170"/>
+      <c r="G32" s="170" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163" t="s">
+      <c r="I32" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163" t="s">
+      <c r="K32" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L31" s="163" t="str">
+      <c r="L32" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M31" s="163" t="s">
+      <c r="M32" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N31" s="163"/>
-      <c r="O31" s="164" t="str">
+      <c r="O32" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q31" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R31" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S31" s="164"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163" t="str" cm="1">
-        <f t="array" ref="U31">IF(J31="", AO31,INDEX(AO:AO,AP31))</f>
+      <c r="Q32" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R32" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U32" s="122" t="str" cm="1">
+        <f t="array" ref="U32">IF(J32="", AO32,INDEX(AO:AO,AP32))</f>
         <v>INT_DOI_NAME</v>
       </c>
-      <c r="V31" s="163" t="str">
+      <c r="V32" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W31" s="163"/>
-      <c r="X31" s="163"/>
-      <c r="Y31" s="165"/>
-      <c r="AO31" s="166" t="str">
+      <c r="Y32" s="160"/>
+      <c r="AO32" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_NAME</v>
       </c>
-      <c r="AP31" s="161">
+      <c r="AP32" s="120">
+        <f>IF(OR(J32="",J32="N/A"), 0, MATCH(J32,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>統一命名Property</v>
       </c>
     </row>
-    <row r="32" spans="1:44" s="161" customFormat="1">
-      <c r="B32" s="161" t="str">
+    <row r="33" spans="2:43">
+      <c r="B33" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C32" s="161" t="str">
+      <c r="C33" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D32" s="178" t="s">
+      <c r="D33" s="170" t="s">
         <v>540</v>
       </c>
-      <c r="E32" s="178" t="s">
-        <v>564</v>
-      </c>
-      <c r="F32" s="178"/>
-      <c r="G32" s="161" t="str">
-        <f t="shared" ref="G32:G35" si="12">D32</f>
+      <c r="E33" s="170" t="s">
+        <v>563</v>
+      </c>
+      <c r="F33" s="170"/>
+      <c r="G33" s="120" t="str">
+        <f t="shared" ref="G33:G36" si="11">D33</f>
         <v>當地名稱</v>
       </c>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163" t="s">
+      <c r="I33" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163" t="s">
+      <c r="K33" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L32" s="163" t="str">
+      <c r="L33" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M32" s="163" t="s">
+      <c r="M33" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N32" s="163"/>
-      <c r="O32" s="164" t="str">
+      <c r="O33" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q32" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R32" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S32" s="164"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="163" t="str" cm="1">
-        <f t="array" ref="U32">IF(J32="", AO32,INDEX(AO:AO,AP32))</f>
+      <c r="Q33" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R33" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U33" s="122" t="str" cm="1">
+        <f t="array" ref="U33">IF(J33="", AO33,INDEX(AO:AO,AP33))</f>
         <v>INT_DOI_LOCALNAME</v>
       </c>
-      <c r="V32" s="163" t="str">
+      <c r="V33" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="165"/>
-      <c r="AO32" s="166" t="str">
+      <c r="Y33" s="160"/>
+      <c r="AO33" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_LOCALNAME</v>
       </c>
-      <c r="AP32" s="161">
+      <c r="AP33" s="120">
+        <f>IF(OR(J33="",J33="N/A"), 0, MATCH(J33,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>當地名稱Property</v>
       </c>
     </row>
-    <row r="33" spans="2:43" s="161" customFormat="1">
-      <c r="B33" s="161" t="str">
+    <row r="34" spans="2:43">
+      <c r="B34" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C33" s="161" t="str">
+      <c r="C34" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D33" s="163" t="s">
+      <c r="D34" s="122" t="s">
         <v>541</v>
       </c>
-      <c r="E33" s="163" t="s">
-        <v>565</v>
-      </c>
-      <c r="F33" s="163"/>
-      <c r="G33" s="161" t="str">
-        <f t="shared" si="12"/>
+      <c r="E34" s="122" t="s">
+        <v>564</v>
+      </c>
+      <c r="G34" s="120" t="str">
+        <f t="shared" si="11"/>
         <v>標準更新來源</v>
       </c>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163" t="s">
+      <c r="I34" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163" t="s">
+      <c r="K34" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L33" s="163" t="str">
+      <c r="L34" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M33" s="163" t="s">
+      <c r="M34" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N33" s="163"/>
-      <c r="O33" s="164" t="str">
+      <c r="O34" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q33" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R33" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S33" s="164"/>
-      <c r="T33" s="163"/>
-      <c r="U33" s="163" t="str" cm="1">
-        <f t="array" ref="U33">IF(J33="", AO33,INDEX(AO:AO,AP33))</f>
+      <c r="Q34" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R34" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U34" s="122" t="str" cm="1">
+        <f t="array" ref="U34">IF(J34="", AO34,INDEX(AO:AO,AP34))</f>
         <v>INT_DOI_UPDATESOURCE</v>
       </c>
-      <c r="V33" s="163" t="str">
+      <c r="V34" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W33" s="163"/>
-      <c r="X33" s="163"/>
-      <c r="Y33" s="165"/>
-      <c r="AO33" s="166" t="str">
+      <c r="Y34" s="160"/>
+      <c r="AO34" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_UPDATESOURCE</v>
       </c>
-      <c r="AP33" s="161">
+      <c r="AP34" s="120">
+        <f>IF(OR(J34="",J34="N/A"), 0, MATCH(J34,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>標準更新來源Property</v>
       </c>
     </row>
-    <row r="34" spans="2:43" s="161" customFormat="1">
-      <c r="B34" s="161" t="str">
+    <row r="35" spans="2:43">
+      <c r="B35" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C34" s="161" t="str">
+      <c r="C35" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D34" s="163" t="s">
+      <c r="D35" s="122" t="s">
         <v>542</v>
       </c>
-      <c r="E34" s="163" t="s">
-        <v>566</v>
-      </c>
-      <c r="F34" s="163"/>
-      <c r="G34" s="161" t="str">
-        <f t="shared" si="12"/>
+      <c r="E35" s="122" t="s">
+        <v>565</v>
+      </c>
+      <c r="G35" s="120" t="str">
+        <f t="shared" si="11"/>
         <v>負責BG</v>
       </c>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163" t="s">
+      <c r="I35" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163" t="s">
+      <c r="K35" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L34" s="163" t="str">
+      <c r="L35" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M34" s="163" t="s">
+      <c r="M35" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N34" s="163"/>
-      <c r="O34" s="164" t="str">
+      <c r="O35" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q34" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R34" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S34" s="164"/>
-      <c r="T34" s="163"/>
-      <c r="U34" s="163" t="str" cm="1">
-        <f t="array" ref="U34">IF(J34="", AO34,INDEX(AO:AO,AP34))</f>
+      <c r="Q35" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R35" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U35" s="122" t="str" cm="1">
+        <f t="array" ref="U35">IF(J35="", AO35,INDEX(AO:AO,AP35))</f>
         <v>INT_DOI_DATAOWNERBG</v>
       </c>
-      <c r="V34" s="163" t="str">
+      <c r="V35" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W34" s="163"/>
-      <c r="X34" s="163"/>
-      <c r="Y34" s="165"/>
-      <c r="AO34" s="166" t="str">
+      <c r="Y35" s="160"/>
+      <c r="AO35" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_DATAOWNERBG</v>
       </c>
-      <c r="AP34" s="161">
+      <c r="AP35" s="120">
+        <f>IF(OR(J35="",J35="N/A"), 0, MATCH(J35,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="120" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="161" t="str">
-        <f t="shared" si="10"/>
         <v>負責BGProperty</v>
       </c>
     </row>
-    <row r="35" spans="2:43" s="161" customFormat="1">
-      <c r="B35" s="161" t="str">
+    <row r="36" spans="2:43">
+      <c r="B36" s="120" t="str">
         <f t="shared" si="1"/>
         <v>MTD</v>
       </c>
-      <c r="C35" s="161" t="str">
+      <c r="C36" s="120" t="str">
         <f t="shared" si="2"/>
         <v>MTD</v>
       </c>
-      <c r="D35" s="163" t="s">
+      <c r="D36" s="122" t="s">
         <v>543</v>
       </c>
-      <c r="E35" s="163" t="s">
-        <v>567</v>
-      </c>
-      <c r="F35" s="163"/>
-      <c r="G35" s="161" t="str">
-        <f t="shared" si="12"/>
+      <c r="E36" s="122" t="s">
+        <v>566</v>
+      </c>
+      <c r="G36" s="120" t="str">
+        <f t="shared" si="11"/>
         <v>更新任務編號</v>
       </c>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163" t="s">
+      <c r="I36" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J35" s="163"/>
-      <c r="K35" s="163" t="s">
+      <c r="K36" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L35" s="163" t="str">
+      <c r="L36" s="122" t="str">
         <f t="shared" si="3"/>
         <v>General</v>
       </c>
-      <c r="M35" s="163" t="s">
+      <c r="M36" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="N35" s="163"/>
-      <c r="O35" s="164" t="str">
+      <c r="O36" s="123" t="str">
         <f t="shared" si="4"/>
         <v>S1.0.01:</v>
       </c>
-      <c r="Q35" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="R35" s="161" t="s">
-        <v>597</v>
-      </c>
-      <c r="S35" s="164"/>
-      <c r="T35" s="163"/>
-      <c r="U35" s="163" t="str" cm="1">
-        <f t="array" ref="U35">IF(J35="", AO35,INDEX(AO:AO,AP35))</f>
+      <c r="Q36" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R36" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U36" s="122" t="str" cm="1">
+        <f t="array" ref="U36">IF(J36="", AO36,INDEX(AO:AO,AP36))</f>
         <v>INT_DOI_TASKID</v>
       </c>
-      <c r="V35" s="163" t="str">
+      <c r="V36" s="122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W35" s="163"/>
-      <c r="X35" s="163"/>
-      <c r="Y35" s="165"/>
-      <c r="AO35" s="166" t="str">
+      <c r="Y36" s="160"/>
+      <c r="AO36" s="158" t="str">
         <f t="shared" si="8"/>
         <v>INT_DOI_TASKID</v>
       </c>
-      <c r="AP35" s="161">
+      <c r="AP36" s="120">
+        <f>IF(OR(J36="",J36="N/A"), 0, MATCH(J36,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="120" t="str">
         <f t="shared" si="9"/>
+        <v>更新任務編號Property</v>
+      </c>
+    </row>
+    <row r="37" spans="2:43" s="124" customFormat="1">
+      <c r="B37" s="124" t="s">
+        <v>594</v>
+      </c>
+      <c r="C37" s="124" t="s">
+        <v>594</v>
+      </c>
+      <c r="D37" s="157" t="s">
+        <v>600</v>
+      </c>
+      <c r="E37" s="157" t="s">
+        <v>601</v>
+      </c>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134" t="s">
+        <v>599</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>184</v>
+      </c>
+      <c r="I37" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="133" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q37" s="124" t="s">
+        <v>596</v>
+      </c>
+      <c r="R37" s="124" t="str">
+        <f>Q37</f>
+        <v>jessewei@tw.ibm.com</v>
+      </c>
+      <c r="S37" s="133"/>
+      <c r="T37" s="134"/>
+      <c r="U37" s="134" t="str" cm="1">
+        <f t="array" ref="U37">IF(J37="", AO37,INDEX(AO:AO,AP37))</f>
+        <v>INT_DOI_DATA_INVENTORY</v>
+      </c>
+      <c r="V37" s="134" t="str">
+        <f>IF(J37="","", AO37 )</f>
+        <v/>
+      </c>
+      <c r="W37" s="134"/>
+      <c r="X37" s="134"/>
+      <c r="Y37" s="135"/>
+      <c r="AM37" s="124" t="str">
+        <f>SUBSTITUTE(AO37, "DOI_DOI_", "DOI_")</f>
+        <v>INT_DOI_DATA_INVENTORY</v>
+      </c>
+      <c r="AO37" s="158" t="str">
+        <f>SUBSTITUTE(IF(J37="", IF(LEN(C37)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F37="", E37, E37)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
+        <v>INT_DOI_DATA_INVENTORY</v>
+      </c>
+      <c r="AP37" s="124">
+        <f>IF(OR(J37="",J37="N/A"), 0, MATCH(J37,D:D,0))</f>
         <v>0</v>
       </c>
-      <c r="AQ35" s="161" t="str">
-        <f t="shared" si="10"/>
-        <v>更新任務編號Property</v>
-      </c>
-    </row>
-    <row r="36" spans="2:43" s="161" customFormat="1">
-      <c r="D36" s="177"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="163"/>
-      <c r="K36" s="163"/>
-      <c r="L36" s="163"/>
-      <c r="M36" s="163"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="164"/>
-      <c r="S36" s="164"/>
-      <c r="T36" s="163"/>
-      <c r="U36" s="163"/>
-      <c r="V36" s="163"/>
-      <c r="W36" s="163"/>
-      <c r="X36" s="163"/>
-    </row>
-    <row r="37" spans="2:43" s="161" customFormat="1">
-      <c r="D37" s="177"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="163"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="163"/>
-      <c r="O37" s="164"/>
-      <c r="S37" s="164"/>
-      <c r="T37" s="163"/>
-      <c r="U37" s="163"/>
-      <c r="V37" s="163"/>
-      <c r="W37" s="163"/>
-      <c r="X37" s="163"/>
-    </row>
-    <row r="38" spans="2:43" s="161" customFormat="1">
-      <c r="D38" s="177"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="163"/>
-      <c r="K38" s="163"/>
-      <c r="L38" s="163"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="163"/>
-      <c r="O38" s="164"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="163"/>
-      <c r="U38" s="163"/>
-      <c r="V38" s="163"/>
-      <c r="W38" s="163"/>
-      <c r="X38" s="163"/>
-    </row>
-    <row r="39" spans="2:43" s="161" customFormat="1">
-      <c r="D39" s="177"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="164"/>
-      <c r="S39" s="164"/>
-      <c r="T39" s="163"/>
-      <c r="U39" s="163"/>
-      <c r="V39" s="163"/>
-      <c r="W39" s="163"/>
-      <c r="X39" s="163"/>
-    </row>
-    <row r="40" spans="2:43" s="161" customFormat="1">
-      <c r="D40" s="177"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="163"/>
-      <c r="K40" s="163"/>
-      <c r="L40" s="163"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="163"/>
-      <c r="O40" s="164"/>
-      <c r="S40" s="164"/>
-      <c r="T40" s="163"/>
-      <c r="U40" s="163"/>
-      <c r="V40" s="163"/>
-      <c r="W40" s="163"/>
-      <c r="X40" s="163"/>
-    </row>
-    <row r="41" spans="2:43" s="161" customFormat="1">
-      <c r="D41" s="177"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="163"/>
-      <c r="K41" s="163"/>
-      <c r="L41" s="163"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="164"/>
-      <c r="S41" s="164"/>
-      <c r="T41" s="163"/>
-      <c r="U41" s="163"/>
-      <c r="V41" s="163"/>
-      <c r="W41" s="163"/>
-      <c r="X41" s="163"/>
-    </row>
-    <row r="42" spans="2:43" s="161" customFormat="1">
-      <c r="D42" s="177"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="163"/>
-      <c r="L42" s="163"/>
-      <c r="M42" s="163"/>
-      <c r="N42" s="163"/>
-      <c r="O42" s="164"/>
-      <c r="S42" s="164"/>
-      <c r="T42" s="163"/>
-      <c r="U42" s="163"/>
-      <c r="V42" s="163"/>
-      <c r="W42" s="163"/>
-      <c r="X42" s="163"/>
-    </row>
-    <row r="43" spans="2:43" s="161" customFormat="1">
-      <c r="D43" s="177"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="163"/>
-      <c r="O43" s="164"/>
-      <c r="S43" s="164"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="163"/>
-      <c r="V43" s="163"/>
-      <c r="W43" s="163"/>
-      <c r="X43" s="163"/>
-    </row>
-    <row r="44" spans="2:43" s="161" customFormat="1">
-      <c r="D44" s="177"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="164"/>
-      <c r="S44" s="164"/>
-      <c r="T44" s="163"/>
-      <c r="U44" s="163"/>
-      <c r="V44" s="163"/>
-      <c r="W44" s="163"/>
-      <c r="X44" s="163"/>
-    </row>
-    <row r="45" spans="2:43" s="161" customFormat="1">
-      <c r="D45" s="177"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="163"/>
-      <c r="K45" s="163"/>
-      <c r="L45" s="163"/>
-      <c r="M45" s="163"/>
-      <c r="N45" s="163"/>
-      <c r="O45" s="164"/>
-      <c r="S45" s="164"/>
-      <c r="T45" s="163"/>
-      <c r="U45" s="163"/>
-      <c r="V45" s="163"/>
-      <c r="W45" s="163"/>
-      <c r="X45" s="163"/>
-    </row>
-    <row r="46" spans="2:43" s="161" customFormat="1">
-      <c r="D46" s="177"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="163"/>
-      <c r="K46" s="163"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="163"/>
-      <c r="N46" s="163"/>
-      <c r="O46" s="164"/>
-      <c r="S46" s="164"/>
-      <c r="T46" s="163"/>
-      <c r="U46" s="163"/>
-      <c r="V46" s="163"/>
-      <c r="W46" s="163"/>
-      <c r="X46" s="163"/>
-    </row>
-    <row r="47" spans="2:43" s="161" customFormat="1">
-      <c r="D47" s="177"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="163"/>
-      <c r="L47" s="163"/>
-      <c r="M47" s="163"/>
-      <c r="N47" s="163"/>
-      <c r="O47" s="164"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="163"/>
-      <c r="U47" s="163"/>
-      <c r="V47" s="163"/>
-      <c r="W47" s="163"/>
-      <c r="X47" s="163"/>
-    </row>
-    <row r="48" spans="2:43" s="161" customFormat="1">
-      <c r="D48" s="177"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="163"/>
-      <c r="J48" s="163"/>
-      <c r="K48" s="163"/>
-      <c r="L48" s="163"/>
-      <c r="M48" s="163"/>
-      <c r="N48" s="163"/>
-      <c r="O48" s="164"/>
-      <c r="S48" s="164"/>
-      <c r="T48" s="163"/>
-      <c r="U48" s="163"/>
-      <c r="V48" s="163"/>
-      <c r="W48" s="163"/>
-      <c r="X48" s="163"/>
-    </row>
-    <row r="49" spans="4:24" s="161" customFormat="1">
-      <c r="D49" s="177"/>
-      <c r="E49" s="163"/>
-      <c r="F49" s="163"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="163"/>
-      <c r="J49" s="163"/>
-      <c r="K49" s="163"/>
-      <c r="L49" s="163"/>
-      <c r="M49" s="163"/>
-      <c r="N49" s="163"/>
-      <c r="O49" s="164"/>
-      <c r="S49" s="164"/>
-      <c r="T49" s="163"/>
-      <c r="U49" s="163"/>
-      <c r="V49" s="163"/>
-      <c r="W49" s="163"/>
-      <c r="X49" s="163"/>
-    </row>
-    <row r="50" spans="4:24" s="161" customFormat="1">
-      <c r="D50" s="177"/>
-      <c r="E50" s="163"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="163"/>
-      <c r="J50" s="163"/>
-      <c r="K50" s="163"/>
-      <c r="L50" s="163"/>
-      <c r="M50" s="163"/>
-      <c r="N50" s="163"/>
-      <c r="O50" s="164"/>
-      <c r="S50" s="164"/>
-      <c r="T50" s="163"/>
-      <c r="U50" s="163"/>
-      <c r="V50" s="163"/>
-      <c r="W50" s="163"/>
-      <c r="X50" s="163"/>
-    </row>
-    <row r="51" spans="4:24" s="161" customFormat="1">
-      <c r="D51" s="177"/>
-      <c r="E51" s="163"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="163"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="163"/>
-      <c r="K51" s="163"/>
-      <c r="L51" s="163"/>
-      <c r="M51" s="163"/>
-      <c r="N51" s="163"/>
-      <c r="O51" s="164"/>
-      <c r="S51" s="164"/>
-      <c r="T51" s="163"/>
-      <c r="U51" s="163"/>
-      <c r="V51" s="163"/>
-      <c r="W51" s="163"/>
-      <c r="X51" s="163"/>
-    </row>
-    <row r="52" spans="4:24" s="161" customFormat="1">
-      <c r="D52" s="177"/>
-      <c r="E52" s="163"/>
-      <c r="F52" s="163"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="163"/>
-      <c r="J52" s="163"/>
-      <c r="K52" s="163"/>
-      <c r="L52" s="163"/>
-      <c r="M52" s="163"/>
-      <c r="N52" s="163"/>
-      <c r="O52" s="164"/>
-      <c r="S52" s="164"/>
-      <c r="T52" s="163"/>
-      <c r="U52" s="163"/>
-      <c r="V52" s="163"/>
-      <c r="W52" s="163"/>
-      <c r="X52" s="163"/>
-    </row>
-    <row r="53" spans="4:24" s="161" customFormat="1">
-      <c r="D53" s="177"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="164"/>
-      <c r="S53" s="164"/>
-      <c r="T53" s="163"/>
-      <c r="U53" s="163"/>
-      <c r="V53" s="163"/>
-      <c r="W53" s="163"/>
-      <c r="X53" s="163"/>
-    </row>
-    <row r="54" spans="4:24" s="161" customFormat="1">
-      <c r="D54" s="177"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="163"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="163"/>
-      <c r="J54" s="163"/>
-      <c r="K54" s="163"/>
-      <c r="L54" s="163"/>
-      <c r="M54" s="163"/>
-      <c r="N54" s="163"/>
-      <c r="O54" s="164"/>
-      <c r="S54" s="164"/>
-      <c r="T54" s="163"/>
-      <c r="U54" s="163"/>
-      <c r="V54" s="163"/>
-      <c r="W54" s="163"/>
-      <c r="X54" s="163"/>
-    </row>
-    <row r="55" spans="4:24" s="161" customFormat="1">
-      <c r="D55" s="177"/>
-      <c r="E55" s="163"/>
-      <c r="F55" s="163"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="163"/>
-      <c r="J55" s="163"/>
-      <c r="K55" s="163"/>
-      <c r="L55" s="163"/>
-      <c r="M55" s="163"/>
-      <c r="N55" s="163"/>
-      <c r="O55" s="164"/>
-      <c r="S55" s="164"/>
-      <c r="T55" s="163"/>
-      <c r="U55" s="163"/>
-      <c r="V55" s="163"/>
-      <c r="W55" s="163"/>
-      <c r="X55" s="163"/>
-    </row>
-    <row r="56" spans="4:24" s="161" customFormat="1">
-      <c r="D56" s="177"/>
-      <c r="E56" s="163"/>
-      <c r="F56" s="163"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="163"/>
-      <c r="L56" s="163"/>
-      <c r="M56" s="163"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="164"/>
-      <c r="S56" s="164"/>
-      <c r="T56" s="163"/>
-      <c r="U56" s="163"/>
-      <c r="V56" s="163"/>
-      <c r="W56" s="163"/>
-      <c r="X56" s="163"/>
-    </row>
-    <row r="57" spans="4:24" s="161" customFormat="1">
-      <c r="D57" s="177"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="163"/>
-      <c r="K57" s="163"/>
-      <c r="L57" s="163"/>
-      <c r="M57" s="163"/>
-      <c r="N57" s="163"/>
-      <c r="O57" s="164"/>
-      <c r="S57" s="164"/>
-      <c r="T57" s="163"/>
-      <c r="U57" s="163"/>
-      <c r="V57" s="163"/>
-      <c r="W57" s="163"/>
-      <c r="X57" s="163"/>
-    </row>
-    <row r="58" spans="4:24" s="161" customFormat="1">
-      <c r="D58" s="177"/>
-      <c r="E58" s="163"/>
-      <c r="F58" s="163"/>
-      <c r="G58" s="163"/>
-      <c r="H58" s="163"/>
-      <c r="I58" s="163"/>
-      <c r="J58" s="163"/>
-      <c r="K58" s="163"/>
-      <c r="L58" s="163"/>
-      <c r="M58" s="163"/>
-      <c r="N58" s="163"/>
-      <c r="O58" s="164"/>
-      <c r="S58" s="164"/>
-      <c r="T58" s="163"/>
-      <c r="U58" s="163"/>
-      <c r="V58" s="163"/>
-      <c r="W58" s="163"/>
-      <c r="X58" s="163"/>
-    </row>
-    <row r="59" spans="4:24" s="161" customFormat="1">
-      <c r="D59" s="177"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="163"/>
-      <c r="K59" s="163"/>
-      <c r="L59" s="163"/>
-      <c r="M59" s="163"/>
-      <c r="N59" s="163"/>
-      <c r="O59" s="164"/>
-      <c r="S59" s="164"/>
-      <c r="T59" s="163"/>
-      <c r="U59" s="163"/>
-      <c r="V59" s="163"/>
-      <c r="W59" s="163"/>
-      <c r="X59" s="163"/>
-    </row>
-    <row r="60" spans="4:24" s="161" customFormat="1">
-      <c r="D60" s="177"/>
-      <c r="E60" s="163"/>
-      <c r="F60" s="163"/>
-      <c r="G60" s="163"/>
-      <c r="H60" s="163"/>
-      <c r="I60" s="163"/>
-      <c r="J60" s="163"/>
-      <c r="K60" s="163"/>
-      <c r="L60" s="163"/>
-      <c r="M60" s="163"/>
-      <c r="N60" s="163"/>
-      <c r="O60" s="164"/>
-      <c r="S60" s="164"/>
-      <c r="T60" s="163"/>
-      <c r="U60" s="163"/>
-      <c r="V60" s="163"/>
-      <c r="W60" s="163"/>
-      <c r="X60" s="163"/>
-    </row>
-    <row r="61" spans="4:24" s="161" customFormat="1">
-      <c r="D61" s="177"/>
-      <c r="E61" s="163"/>
-      <c r="F61" s="163"/>
-      <c r="G61" s="163"/>
-      <c r="H61" s="163"/>
-      <c r="I61" s="163"/>
-      <c r="J61" s="163"/>
-      <c r="K61" s="163"/>
-      <c r="L61" s="163"/>
-      <c r="M61" s="163"/>
-      <c r="N61" s="163"/>
-      <c r="O61" s="164"/>
-      <c r="S61" s="164"/>
-      <c r="T61" s="163"/>
-      <c r="U61" s="163"/>
-      <c r="V61" s="163"/>
-      <c r="W61" s="163"/>
-      <c r="X61" s="163"/>
+      <c r="AQ37" s="124" t="str">
+        <f>D37&amp;I37</f>
+        <v>中介檔Concept</v>
+      </c>
+    </row>
+    <row r="38" spans="2:43" s="174" customFormat="1" ht="54">
+      <c r="B38" s="174" t="s">
+        <v>594</v>
+      </c>
+      <c r="C38" s="174" t="s">
+        <v>594</v>
+      </c>
+      <c r="D38" s="175" t="s">
+        <v>520</v>
+      </c>
+      <c r="E38" s="175" t="s">
+        <v>551</v>
+      </c>
+      <c r="F38" s="176"/>
+      <c r="G38" s="176" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38" s="176"/>
+      <c r="K38" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" s="176" t="s">
+        <v>186</v>
+      </c>
+      <c r="M38" s="176"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="177" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q38" s="174" t="s">
+        <v>596</v>
+      </c>
+      <c r="R38" s="174" t="str">
+        <f>Q38</f>
+        <v>jessewei@tw.ibm.com</v>
+      </c>
+      <c r="S38" s="177"/>
+      <c r="T38" s="176"/>
+      <c r="U38" s="176" t="str" cm="1">
+        <f t="array" ref="U38">IF(J38="", AO38,INDEX(AO:AO,AP38))</f>
+        <v>INT_DOI_TERMID</v>
+      </c>
+      <c r="V38" s="176" t="str">
+        <f>IF(J38="","", AO38 )</f>
+        <v/>
+      </c>
+      <c r="W38" s="176"/>
+      <c r="X38" s="176"/>
+      <c r="Y38" s="178"/>
+      <c r="AM38" s="174" t="str">
+        <f>SUBSTITUTE(AO38, "DOI_DOI_", "DOI_")</f>
+        <v>INT_DOI_TERMID</v>
+      </c>
+      <c r="AO38" s="179" t="str">
+        <f>SUBSTITUTE(IF(J38="", IF(LEN(C38)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F38="", E38, E38)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
+        <v>INT_DOI_TERMID</v>
+      </c>
+      <c r="AP38" s="174">
+        <f>IF(OR(J38="",J38="N/A"), 0, MATCH(J38,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="174" t="str">
+        <f>D38&amp;I38</f>
+        <v>標準編號Property</v>
+      </c>
+    </row>
+    <row r="39" spans="2:43">
+      <c r="B39" s="120" t="str">
+        <f>B37</f>
+        <v>MTD</v>
+      </c>
+      <c r="C39" s="120" t="str">
+        <f>C37</f>
+        <v>MTD</v>
+      </c>
+      <c r="D39" s="159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="159" t="s">
+        <v>442</v>
+      </c>
+      <c r="G39" s="159" t="s">
+        <v>574</v>
+      </c>
+      <c r="H39" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="K39" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="L39" s="122" t="str">
+        <f>L37</f>
+        <v>General</v>
+      </c>
+      <c r="M39" s="122" t="s">
+        <v>189</v>
+      </c>
+      <c r="O39" s="123" t="str">
+        <f>O37</f>
+        <v>S1.0.01:</v>
+      </c>
+      <c r="Q39" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R39" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U39" s="122" t="str" cm="1">
+        <f t="array" ref="U39">IF(J39="", AO39,INDEX(AO:AO,AP39))</f>
+        <v>INT_DOI_DOMAIN</v>
+      </c>
+      <c r="V39" s="122" t="str">
+        <f>IF(J39="","", AO39 )</f>
+        <v/>
+      </c>
+      <c r="Y39" s="160"/>
+      <c r="AO39" s="158" t="str">
+        <f t="shared" ref="AO39:AO40" si="12">SUBSTITUTE(IF(J39="", IF(LEN(C39)&lt;5, "INT_", "DM_") &amp;"DOI"&amp; "_", "") &amp;UPPER(SUBSTITUTE(SUBSTITUTE(TRIM( IF(F39="", E39, E39)),"-","_")," ","_")),"DOI_DOI_", "DOI_")</f>
+        <v>INT_DOI_DOMAIN</v>
+      </c>
+      <c r="AP39" s="120">
+        <f>IF(OR(J39="",J39="N/A"), 0, MATCH(J39,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="120" t="str">
+        <f>D39&amp;I39</f>
+        <v>負責領域Property</v>
+      </c>
+    </row>
+    <row r="40" spans="2:43">
+      <c r="B40" s="120" t="str">
+        <f t="shared" ref="B40:C40" si="13">B39</f>
+        <v>MTD</v>
+      </c>
+      <c r="C40" s="120" t="str">
+        <f t="shared" si="13"/>
+        <v>MTD</v>
+      </c>
+      <c r="D40" s="159" t="s">
+        <v>521</v>
+      </c>
+      <c r="E40" s="159" t="s">
+        <v>552</v>
+      </c>
+      <c r="G40" s="159" t="s">
+        <v>575</v>
+      </c>
+      <c r="H40" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="I40" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="K40" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="L40" s="122" t="str">
+        <f t="shared" ref="L40" si="14">L39</f>
+        <v>General</v>
+      </c>
+      <c r="M40" s="122" t="s">
+        <v>189</v>
+      </c>
+      <c r="O40" s="123" t="str">
+        <f t="shared" ref="O40" si="15">O39</f>
+        <v>S1.0.01:</v>
+      </c>
+      <c r="Q40" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="R40" s="120" t="s">
+        <v>596</v>
+      </c>
+      <c r="U40" s="122" t="str" cm="1">
+        <f t="array" ref="U40">IF(J40="", AO40,INDEX(AO:AO,AP40))</f>
+        <v>INT_DOI_CATEGORY</v>
+      </c>
+      <c r="V40" s="122" t="str">
+        <f t="shared" ref="V40" si="16">IF(J40="","", AO40 )</f>
+        <v/>
+      </c>
+      <c r="Y40" s="160"/>
+      <c r="AO40" s="158" t="str">
+        <f t="shared" si="12"/>
+        <v>INT_DOI_CATEGORY</v>
+      </c>
+      <c r="AP40" s="120">
+        <f>IF(OR(J40="",J40="N/A"), 0, MATCH(J40,D:D,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="120" t="str">
+        <f t="shared" ref="AQ40" si="17">D40&amp;I40</f>
+        <v>層級Property</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:AQ36" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1">
-    <cfRule type="containsText" dxfId="2" priority="139" operator="containsText" text="L1">
+    <cfRule type="containsText" dxfId="1" priority="139" operator="containsText" text="L1">
       <formula>NOT(ISERROR(SEARCH("L1",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M47" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M48" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"數值類, 金額類, 編碼類 , 代碼類, 註記類, 文本類, 比例類, 日期類, 時間類, 日期時間類, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I35" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I40" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>TermType</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="https://inventeccorp.sharepoint.com/sites/msteams_e8e153_245270/Shared Documents/Operational/_old/PSG_QAM_Datastandard_v1.0.xlsx?web=1" xr:uid="{E53E3D39-5966-49F9-9A77-C1B512457699}"/>
+    <hyperlink ref="R3" r:id="rId2" display="https://inventeccorp.sharepoint.com/sites/msteams_e8e153_245270/Shared Documents/Operational/_old/PSG_QAM_Datastandard_v1.0.xlsx?web=1" xr:uid="{81DC0F34-6530-4D7F-A86F-82B76E31C67D}"/>
+    <hyperlink ref="R37" r:id="rId3" display="https://inventeccorp.sharepoint.com/sites/msteams_e8e153_245270/Shared Documents/Operational/_old/PSG_QAM_Datastandard_v1.0.xlsx?web=1" xr:uid="{D0687EE7-9130-4D9D-A62E-8C6D177F48AF}"/>
+    <hyperlink ref="R38" r:id="rId4" display="https://inventeccorp.sharepoint.com/sites/msteams_e8e153_245270/Shared Documents/Operational/_old/PSG_QAM_Datastandard_v1.0.xlsx?web=1" xr:uid="{58CC4467-7392-4FC3-BED5-6ED1346AB9EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -26193,18 +25817,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="172" t="s">
         <v>419</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="173" t="s">
         <v>420</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:10" s="70" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="67" t="s">
@@ -30652,6 +30276,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="285cb2ad-eb57-4aaf-b0a3-1761797acbb4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e2ba26dd-2cac-4c08-a62d-1daac4d0446f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100269E06C726CAF447AC794C991B31A5CE" ma:contentTypeVersion="15" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="85cfd53c135ea4ea49dd271002058716">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="285cb2ad-eb57-4aaf-b0a3-1761797acbb4" xmlns:ns3="e2ba26dd-2cac-4c08-a62d-1daac4d0446f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbf9da3cb86c6f5fc570a1d168887a34" ns2:_="" ns3:_="">
     <xsd:import namespace="285cb2ad-eb57-4aaf-b0a3-1761797acbb4"/>
@@ -30888,27 +30532,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="285cb2ad-eb57-4aaf-b0a3-1761797acbb4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e2ba26dd-2cac-4c08-a62d-1daac4d0446f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9F0E699-6219-4D22-B060-CE1BC82977F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDBAA07F-221E-46C7-A42A-249B76E0E2DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="285cb2ad-eb57-4aaf-b0a3-1761797acbb4"/>
+    <ds:schemaRef ds:uri="e2ba26dd-2cac-4c08-a62d-1daac4d0446f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D03BEA0B-CC74-428D-910D-66EB712BE0D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30925,23 +30568,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDBAA07F-221E-46C7-A42A-249B76E0E2DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="285cb2ad-eb57-4aaf-b0a3-1761797acbb4"/>
-    <ds:schemaRef ds:uri="e2ba26dd-2cac-4c08-a62d-1daac4d0446f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9F0E699-6219-4D22-B060-CE1BC82977F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>